--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,144 +665,157 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E8" s="3">
         <v>8100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>22000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>8700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18700</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10900</v>
       </c>
       <c r="I9" s="3">
         <v>10900</v>
       </c>
       <c r="J9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76800</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +827,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +857,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +889,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,8 +921,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +953,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +966,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,37 +1044,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>166400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-146500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1069,8 +1106,11 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,37 +1138,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E23" s="3">
         <v>165400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-127400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1141,8 +1187,8 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1153,11 +1199,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1234,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E26" s="3">
         <v>165400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-127400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>53500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E27" s="3">
         <v>163100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-127400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1330,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1362,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1394,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1426,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-166400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>146500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E33" s="3">
         <v>163100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-127400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>53500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1522,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E35" s="3">
         <v>163100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-127400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>53500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1607,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1621,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43400</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,37 +1683,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>26400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,37 +1747,43 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1709,37 +1811,43 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="E47" s="3">
         <v>955100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>842300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1305700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1229000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1039000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>830900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1767,8 +1875,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +1907,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1939,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +1971,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2035,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E54" s="3">
         <v>960500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>854100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>978000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1353000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1281700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1045600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>917300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2083,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,95 +2097,105 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>900</v>
       </c>
       <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E58" s="3">
         <v>83300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>149700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>338900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>251000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>242200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>98100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2083,8 +2223,11 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2255,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2287,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2319,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2351,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2383,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E66" s="3">
         <v>86600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>172900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>379400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>277900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>127100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2431,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2461,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,17 +2493,20 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E70" s="3">
         <v>82500</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2357,8 +2525,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2557,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-239600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-391600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-419400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-255300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-390400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-312600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2621,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2653,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2685,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>911200</v>
+      </c>
+      <c r="E76" s="3">
         <v>791400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>790800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>805100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>973600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1019100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>767700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>790100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2749,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E81" s="3">
         <v>163100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-127400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>53500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2834,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2864,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2896,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2928,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2960,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +2992,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3024,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>31600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>118100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>223800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-45300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-165600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-129100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-224600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3072,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2881,8 +3102,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3134,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,8 +3166,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2968,8 +3198,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3214,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-19300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-34200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-39300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-28500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3276,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3308,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3340,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-124300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-229000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>47600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>181300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>119600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>231400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,170 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E8" s="3">
         <v>87000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>10900</v>
       </c>
       <c r="J9" s="3">
         <v>10900</v>
       </c>
       <c r="K9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="L9" s="3">
         <v>7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>70900</v>
+      </c>
+      <c r="E10" s="3">
         <v>76800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,8 +909,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,8 +944,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,8 +979,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -967,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E18" s="3">
         <v>76100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1045,40 +1078,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E20" s="3">
         <v>8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>166400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-146500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>44000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1109,8 +1146,11 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,40 +1181,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E23" s="3">
         <v>84700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>165400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-127400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1190,8 +1236,8 @@
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1202,11 +1248,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1237,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>130500</v>
+      </c>
+      <c r="E26" s="3">
         <v>84700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>165400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-127400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>53500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E27" s="3">
         <v>82300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>163100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-127400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>53500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1365,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1397,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1429,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-166400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>146500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-44000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E33" s="3">
         <v>82300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>163100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-127400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>53500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1525,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E35" s="3">
         <v>82300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>163100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-127400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>53500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1608,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,40 +1708,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43400</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1686,40 +1776,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,40 +1846,46 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1814,40 +1916,46 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1129600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1042000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>955100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>842300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>959100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1305700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1229000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1039000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>830900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1878,8 +1986,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1910,8 +2021,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1942,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1974,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2038,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1137600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1048000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>960500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>854100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>978000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1353000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1281700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1045600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>917300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,104 +2228,114 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>900</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E58" s="3">
         <v>42900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>83300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>149700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>338900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>251000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>242200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>98100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2226,8 +2366,11 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2258,8 +2401,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2290,8 +2436,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2322,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2354,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2386,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E66" s="3">
         <v>53600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>86600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>172900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>379400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>277900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>127100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2432,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2464,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2496,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2505,11 +2673,11 @@
         <v>83300</v>
       </c>
       <c r="E70" s="3">
+        <v>83300</v>
+      </c>
+      <c r="F70" s="3">
         <v>82500</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2528,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2560,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-239600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-391600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-419400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-255300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-390400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-312600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-151000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2624,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2656,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2688,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1029700</v>
+      </c>
+      <c r="E76" s="3">
         <v>911200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>791400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>790800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>805100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>973600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1019100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>767700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>790100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2752,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E81" s="3">
         <v>82300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>163100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-127400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>53500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2835,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2867,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2899,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2931,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2963,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2995,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3027,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E89" s="3">
         <v>6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>118100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-45300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-165600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-129100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-224600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3073,8 +3293,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3105,8 +3326,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3137,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3169,8 +3396,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3201,8 +3431,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3215,40 +3448,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-19300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-34200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-39300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-37700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3279,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3311,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3343,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-124300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-229000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>47600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>181300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>119600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>231400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-61600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E8" s="3">
         <v>82000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>87000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>29100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>22000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>18700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10900</v>
       </c>
       <c r="K9" s="3">
         <v>10900</v>
       </c>
       <c r="L9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M9" s="3">
         <v>7300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E10" s="3">
         <v>70900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>76800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,31 +967,34 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
         <v>70200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>76100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,43 +1112,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E20" s="3">
         <v>60300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>166400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-146500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>44000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>12000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1149,31 +1186,34 @@
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1184,48 +1224,54 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="E23" s="3">
         <v>130500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>84700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>165400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-127400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>7500</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>8</v>
@@ -1239,8 +1285,8 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1251,11 +1297,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E26" s="3">
         <v>130500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>84700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>165400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-127400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E27" s="3">
         <v>128200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>163100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-127400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>53500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-60300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-166400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>146500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-44000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-12000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E33" s="3">
         <v>128200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>163100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-127400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>53500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E35" s="3">
         <v>128200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>163100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-127400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>53500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>48200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,43 +1869,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1849,43 +1945,49 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1919,66 +2021,72 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>845800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1129600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1042000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>955100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>842300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>959100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1305700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1229000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1039000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>830900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>261100</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1989,8 +2097,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2024,8 +2135,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1254900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1137600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1048000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>960500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>854100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>978000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1353000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1281700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1045600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>917300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,113 +2359,123 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>900</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>16000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>83300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>46800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>149700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>338900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>251000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>242200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>98100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2369,13 +2509,16 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>179200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2404,8 +2547,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2439,8 +2585,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>207800</v>
+      </c>
+      <c r="E66" s="3">
         <v>24700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>86600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>172900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>379400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>262600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>277900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>127100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,23 +2829,26 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>83300</v>
       </c>
       <c r="F70" s="3">
+        <v>83300</v>
+      </c>
+      <c r="G70" s="3">
         <v>82500</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E72" s="3">
         <v>114300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-239600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-391600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-419400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-255300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-390400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-312600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1047100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1029700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>911200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>791400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>790800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>805100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>973600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1019100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>767700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>790100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E81" s="3">
         <v>128200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>163100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-127400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>53500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E89" s="3">
         <v>38600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>118100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>223800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-45300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-165600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-129100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-224600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,8 +3514,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3329,8 +3550,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,8 +3626,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,8 +3664,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,43 +3682,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-9700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-9900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-19300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-34200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-52400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-39300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-37700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-124300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-229000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>181300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>119600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>231400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-61600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,9 +665,8 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -676,172 +675,198 @@
     <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F8" s="3">
         <v>40800</v>
       </c>
-      <c r="E8" s="3">
-        <v>82000</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>79200</v>
+      </c>
+      <c r="H8" s="3">
         <v>87000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>29100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>33200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>22000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>10200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>8700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>10300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>18700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>47700</v>
+      </c>
+      <c r="F10" s="3">
         <v>37700</v>
       </c>
-      <c r="E10" s="3">
-        <v>70900</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>68100</v>
+      </c>
+      <c r="H10" s="3">
         <v>76800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>19500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>14500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>12800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +881,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +921,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +965,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,20 +1009,26 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
@@ -996,11 +1041,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1008,8 +1053,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1072,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24400</v>
+      </c>
+      <c r="F17" s="3">
         <v>12700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>16500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>12500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30700</v>
+      </c>
+      <c r="F18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
-        <v>70200</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>67400</v>
+      </c>
+      <c r="H18" s="3">
         <v>76100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,46 +1178,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-77000</v>
       </c>
-      <c r="E20" s="3">
-        <v>60300</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>61700</v>
+      </c>
+      <c r="H20" s="3">
         <v>8500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>166400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-146500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>44000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>12000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1189,20 +1262,26 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,11 +1294,11 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1227,58 +1306,70 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-51500</v>
       </c>
-      <c r="E23" s="3">
-        <v>130500</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>129100</v>
+      </c>
+      <c r="H23" s="3">
         <v>84700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>165400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-127400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>53500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>24600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1288,11 +1379,11 @@
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1300,11 +1391,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1438,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-59000</v>
       </c>
-      <c r="E26" s="3">
-        <v>130500</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>129100</v>
+      </c>
+      <c r="H26" s="3">
         <v>84700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>165400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-127400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>53500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>24500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-60100</v>
       </c>
-      <c r="E27" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>126800</v>
+      </c>
+      <c r="H27" s="3">
         <v>82300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>163100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-127400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>53500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>24500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1570,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1614,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1658,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1702,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>96600</v>
+      </c>
+      <c r="F32" s="3">
         <v>77000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-60300</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-166400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>146500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-44000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-12000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-60100</v>
       </c>
-      <c r="E33" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>126800</v>
+      </c>
+      <c r="H33" s="3">
         <v>82300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>163100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-127400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>53500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>24500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1834,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-60100</v>
       </c>
-      <c r="E35" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>126800</v>
+      </c>
+      <c r="H35" s="3">
         <v>82300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>163100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-127400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>53500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>24500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1949,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1967,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F41" s="3">
         <v>29200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>43400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>48200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,46 +2051,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F43" s="3">
         <v>11900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>26400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>17800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1948,46 +2139,58 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>4800</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2024,58 +2227,70 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>797700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>825600</v>
+      </c>
+      <c r="F47" s="3">
         <v>845800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1129600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1042000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>955100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>842300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>959100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1305700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1229000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1039000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>830900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>266100</v>
+      </c>
+      <c r="F48" s="3">
         <v>261100</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2088,11 +2303,11 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2100,8 +2315,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,8 +2359,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2403,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2447,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F52" s="3">
         <v>34500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>12100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2535,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1191200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1222900</v>
+      </c>
+      <c r="F54" s="3">
         <v>1254900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1137600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1048000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>960500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>854100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>978000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1353000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1281700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1045600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>917300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2601,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,122 +2619,142 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F57" s="3">
         <v>11500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>25600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>42900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>83300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>46800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>149700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>338900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>251000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>242200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>98100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>15500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>34000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>32500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2512,20 +2791,26 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>171300</v>
+      </c>
+      <c r="F61" s="3">
         <v>179200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2550,8 +2835,14 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2588,8 +2879,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2923,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2967,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +3011,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>205100</v>
+      </c>
+      <c r="F66" s="3">
         <v>207800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>53600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>86600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>63300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>172900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>379400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>262600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>277900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>127100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +3077,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +3117,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +3161,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,20 +3176,20 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>83300</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>83300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>82500</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2870,8 +3205,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3249,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F72" s="3">
         <v>48600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>114300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-239600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-391600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-419400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-255300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-390400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-312600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-151000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3337,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3381,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3425,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1047100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1029700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>911200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>791400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>790800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>805100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>973600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1019100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>767700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>790100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3513,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-60100</v>
       </c>
-      <c r="E81" s="3">
-        <v>128200</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>126800</v>
+      </c>
+      <c r="H81" s="3">
         <v>82300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>163100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-127400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>53500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>24500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3628,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3668,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3712,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3756,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3800,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3844,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3888,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F89" s="3">
         <v>27600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>38600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>31600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>118100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>223800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-45300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-165600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-129100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-224600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,8 +3954,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3553,8 +3994,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +4038,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,8 +4082,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3667,8 +4126,14 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +4148,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-9700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-9900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-10200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-19300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-34200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-52400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-39300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-37700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-28500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +4232,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4276,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4320,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1500</v>
+        <v>-12600</v>
       </c>
       <c r="E100" s="3">
-        <v>-36300</v>
+        <v>-19100</v>
       </c>
       <c r="F100" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-3800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-40600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-124300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-229000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>47600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>181300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>119600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>231400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-9000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>12900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-61600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>13900</v>
       </c>
       <c r="E8" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F8" s="3">
         <v>55100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>79200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>87000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>22000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4500</v>
+        <v>3100</v>
       </c>
       <c r="E9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>10900</v>
       </c>
       <c r="N9" s="3">
         <v>10900</v>
       </c>
       <c r="O9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P9" s="3">
         <v>7300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>10800</v>
       </c>
       <c r="E10" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F10" s="3">
         <v>47700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>37700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>68100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>76800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>12800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,8 +988,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,23 +1035,26 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="3">
         <v>3500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3600</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1047,8 +1070,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1059,8 +1082,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3600</v>
+        <v>13900</v>
       </c>
       <c r="E17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>67400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,60 +1213,64 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-9800</v>
       </c>
       <c r="E20" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-96600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-77000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>61700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>166400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-146500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>44000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>12000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-11700</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1268,23 +1305,26 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1300,8 +1340,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1312,67 +1352,73 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-13600</v>
       </c>
       <c r="E23" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-71600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>129100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>84700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>165400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-127400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>800</v>
+      </c>
+      <c r="F24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1385,8 +1431,8 @@
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1397,11 +1443,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-13900</v>
       </c>
       <c r="E26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-81600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>129100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>84700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>165400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-127400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-15000</v>
       </c>
       <c r="E27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-83900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-60100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>126800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>82300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>163100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-127400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>9800</v>
       </c>
       <c r="E32" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F32" s="3">
         <v>96600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>77000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-61700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-166400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>146500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-44000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-12000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-15000</v>
       </c>
       <c r="E33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-83900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>163100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-127400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-15000</v>
       </c>
       <c r="E35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-83900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>163100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-127400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>48200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,52 +2147,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E43" s="3">
         <v>7200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>11900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,52 +2241,58 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>4800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2233,67 +2335,73 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>782200</v>
+      </c>
+      <c r="E47" s="3">
         <v>797700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>825600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>845800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1129600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1042000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>955100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>842300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>959100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1305700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1229000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1039000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>830900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E48" s="3">
         <v>267800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>266100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>261100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2309,8 +2417,8 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2321,8 +2429,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2476,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E52" s="3">
         <v>38800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>34500</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1173500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1191200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1222900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1254900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1137600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1048000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>960500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>854100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>978000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1353000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1281700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1045600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>917300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,140 +2751,150 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E57" s="3">
         <v>12500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>400</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>83300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>149700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>338900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>251000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>242200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>98100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>15200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2797,23 +2937,26 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>165900</v>
+        <v>178400</v>
       </c>
       <c r="E61" s="3">
+        <v>157900</v>
+      </c>
+      <c r="F61" s="3">
         <v>171300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>179200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2841,8 +2984,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2885,8 +3031,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>202200</v>
+      </c>
+      <c r="E66" s="3">
         <v>199700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>205100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>207800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>53600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>86600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>172900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>379400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>277900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>127100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3182,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>83300</v>
       </c>
       <c r="I70" s="3">
+        <v>83300</v>
+      </c>
+      <c r="J70" s="3">
         <v>82500</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>48600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>114300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-239600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-391600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-419400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-255300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-390400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-312600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-151000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>971300</v>
       </c>
       <c r="E76" s="3">
+        <v>991600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1017800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1047100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1029700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>911200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>791400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>790800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>805100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>973600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1019100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>767700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>790100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-15000</v>
       </c>
       <c r="E81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-83900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>163100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-127400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,31 +3828,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>118100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>223800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-45300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-165600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-129100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-224600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4176,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4000,8 +4221,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,31 +4315,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>8200</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4132,8 +4362,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,52 +4383,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5700</v>
       </c>
       <c r="E96" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-5600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-9700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-10200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-19300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-34200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-52400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-39300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-37700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-28500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,52 +4569,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-19100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-40600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-124300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-229000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>181300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>119600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>231400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4396,66 +4645,72 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-3100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="G102" s="3">
         <v>12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-61600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NXDT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>NXDT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E8" s="3">
         <v>13900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>55100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>87000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>22000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>11100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>10900</v>
       </c>
       <c r="O9" s="3">
         <v>10900</v>
       </c>
       <c r="P9" s="3">
+        <v>10900</v>
+      </c>
+      <c r="Q9" s="3">
         <v>7300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E10" s="3">
         <v>10800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>68100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>76800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>12800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,26 +1058,29 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3600</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1073,8 +1096,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1085,8 +1108,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
         <v>13900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>67400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,67 +1247,71 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-17600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-96600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-77000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>61700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>166400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-146500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>58300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-6200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1308,26 +1345,29 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1343,8 +1383,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1355,55 +1395,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-71600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>129100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>84700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>165400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-127400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>24600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1411,17 +1457,17 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1434,8 +1480,8 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,11 +1492,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-19500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-81600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-59000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>129100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>84700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>165400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-127400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-83900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>82300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>163100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-127400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>9800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>17600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>96600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>77000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-61700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-166400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>146500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-58300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-83900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>163100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-127400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-83900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>163100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-127400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>48200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,55 +2240,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
         <v>9800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,55 +2340,61 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E45" s="3">
         <v>7500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2338,73 +2440,79 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>781800</v>
+      </c>
+      <c r="E47" s="3">
         <v>782200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>797700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>825600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>845800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1129600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1042000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>955100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>842300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>959100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1305700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1229000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1039000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>830900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>679600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E48" s="3">
         <v>266600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>266100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>261100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2420,8 +2528,8 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2432,8 +2540,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2479,8 +2590,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2690,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E52" s="3">
         <v>36200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>37500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>34500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1173500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1191200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1222900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1254900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1137600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1048000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>960500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>854100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>978000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1353000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1281700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1045600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>917300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>691900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,149 +2882,159 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>12500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>13900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>83300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>46800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>149700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>338900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>251000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>242200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>98100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2940,26 +3080,29 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>179300</v>
+      </c>
+      <c r="E61" s="3">
         <v>178400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>157900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>171300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>179200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2987,8 +3130,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3034,8 +3180,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E66" s="3">
         <v>202200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>199700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>205100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>207800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>53600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>172900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>379400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>277900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>127100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3353,17 +3521,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>83300</v>
       </c>
       <c r="J70" s="3">
+        <v>83300</v>
+      </c>
+      <c r="K70" s="3">
         <v>82500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-29000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>48600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>114300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-239600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-391600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-419400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-255300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-390400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-312600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-157900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
         <v>971300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>991600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1017800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1047100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1029700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>911200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>791400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>790800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>805100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>973600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1019100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>767700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>790100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>592300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-83900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>163100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-127400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>59800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,20 +4027,21 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
         <v>3600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3855,8 +4054,8 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>223800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-45300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-165600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-129100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-224600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4397,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4224,8 +4445,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,20 +4545,23 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
         <v>10400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>8200</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
@@ -4344,8 +4574,8 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4365,8 +4595,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,55 +4617,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-11200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-5600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-9700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-10200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-34200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-52400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-39300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-37700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-26500</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,55 +4815,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>10900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-40600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-124300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-229000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>181300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>119600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>231400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-92300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4648,69 +4897,75 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-61600</v>
       </c>
     </row>
